--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col3a1-Mag.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col3a1-Mag.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.876086666666667</v>
+        <v>27.815563</v>
       </c>
       <c r="H2">
-        <v>23.62826</v>
+        <v>83.44668899999999</v>
       </c>
       <c r="I2">
-        <v>0.005141951162768809</v>
+        <v>0.01951398625693626</v>
       </c>
       <c r="J2">
-        <v>0.005141951162768809</v>
+        <v>0.01951398625693626</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.003643333333333333</v>
+        <v>0.009034333333333333</v>
       </c>
       <c r="N2">
-        <v>0.01093</v>
+        <v>0.027103</v>
       </c>
       <c r="O2">
-        <v>0.002400362448141301</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="P2">
-        <v>0.002400362448141301</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="Q2">
-        <v>0.02869520908888889</v>
+        <v>0.2512950679963333</v>
       </c>
       <c r="R2">
-        <v>0.2582568818</v>
+        <v>2.261655611966999</v>
       </c>
       <c r="S2">
-        <v>1.234254648128675E-05</v>
+        <v>0.0003956216316553691</v>
       </c>
       <c r="T2">
-        <v>1.234254648128675E-05</v>
+        <v>0.0003956216316553691</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.876086666666667</v>
+        <v>27.815563</v>
       </c>
       <c r="H3">
-        <v>23.62826</v>
+        <v>83.44668899999999</v>
       </c>
       <c r="I3">
-        <v>0.005141951162768809</v>
+        <v>0.01951398625693626</v>
       </c>
       <c r="J3">
-        <v>0.005141951162768809</v>
+        <v>0.01951398625693626</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2626486666666666</v>
+        <v>0.1841083333333333</v>
       </c>
       <c r="N3">
-        <v>0.7879459999999999</v>
+        <v>0.552325</v>
       </c>
       <c r="O3">
-        <v>0.1730426339947982</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="P3">
-        <v>0.1730426339947983</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="Q3">
-        <v>2.068643661551111</v>
+        <v>5.121076944658332</v>
       </c>
       <c r="R3">
-        <v>18.61779295396</v>
+        <v>46.08969250192499</v>
       </c>
       <c r="S3">
-        <v>0.0008897767730781304</v>
+        <v>0.008062270512638886</v>
       </c>
       <c r="T3">
-        <v>0.0008897767730781305</v>
+        <v>0.008062270512638888</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.876086666666667</v>
+        <v>27.815563</v>
       </c>
       <c r="H4">
-        <v>23.62826</v>
+        <v>83.44668899999999</v>
       </c>
       <c r="I4">
-        <v>0.005141951162768809</v>
+        <v>0.01951398625693626</v>
       </c>
       <c r="J4">
-        <v>0.005141951162768809</v>
+        <v>0.01951398625693626</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.5169776666666667</v>
+        <v>0.09045733333333333</v>
       </c>
       <c r="N4">
-        <v>1.550933</v>
+        <v>0.271372</v>
       </c>
       <c r="O4">
-        <v>0.3406039645730221</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="P4">
-        <v>0.3406039645730221</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="Q4">
-        <v>4.071760907397778</v>
+        <v>2.516121654145333</v>
       </c>
       <c r="R4">
-        <v>36.64584816658</v>
+        <v>22.645094887308</v>
       </c>
       <c r="S4">
-        <v>0.001751368951679917</v>
+        <v>0.003961208479710026</v>
       </c>
       <c r="T4">
-        <v>0.001751368951679917</v>
+        <v>0.003961208479710027</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.876086666666667</v>
+        <v>27.815563</v>
       </c>
       <c r="H5">
-        <v>23.62826</v>
+        <v>83.44668899999999</v>
       </c>
       <c r="I5">
-        <v>0.005141951162768809</v>
+        <v>0.01951398625693626</v>
       </c>
       <c r="J5">
-        <v>0.005141951162768809</v>
+        <v>0.01951398625693626</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.03064833333333333</v>
+        <v>0.1620173333333333</v>
       </c>
       <c r="N5">
-        <v>0.091945</v>
+        <v>0.486052</v>
       </c>
       <c r="O5">
-        <v>0.02019225300039816</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="P5">
-        <v>0.02019225300039816</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="Q5">
-        <v>0.2413889295222222</v>
+        <v>4.506603342425333</v>
       </c>
       <c r="R5">
-        <v>2.1725003657</v>
+        <v>40.559430081828</v>
       </c>
       <c r="S5">
-        <v>0.0001038275787943193</v>
+        <v>0.00709488563293198</v>
       </c>
       <c r="T5">
-        <v>0.0001038275787943193</v>
+        <v>0.007094885632931982</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.876086666666667</v>
+        <v>1350.889973666667</v>
       </c>
       <c r="H6">
-        <v>23.62826</v>
+        <v>4052.669921</v>
       </c>
       <c r="I6">
-        <v>0.005141951162768809</v>
+        <v>0.947715794239517</v>
       </c>
       <c r="J6">
-        <v>0.005141951162768809</v>
+        <v>0.9477157942395171</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.7039083333333332</v>
+        <v>0.009034333333333333</v>
       </c>
       <c r="N6">
-        <v>2.111725</v>
+        <v>0.027103</v>
       </c>
       <c r="O6">
-        <v>0.4637607859836402</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="P6">
-        <v>0.4637607859836402</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="Q6">
-        <v>5.544043038722221</v>
+        <v>12.20439031876256</v>
       </c>
       <c r="R6">
-        <v>49.8963873485</v>
+        <v>109.839512868863</v>
       </c>
       <c r="S6">
-        <v>0.002384635312735155</v>
+        <v>0.0192137507901201</v>
       </c>
       <c r="T6">
-        <v>0.002384635312735156</v>
+        <v>0.0192137507901201</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>4052.669921</v>
       </c>
       <c r="I7">
-        <v>0.8819367491556352</v>
+        <v>0.947715794239517</v>
       </c>
       <c r="J7">
-        <v>0.8819367491556351</v>
+        <v>0.9477157942395171</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.003643333333333333</v>
+        <v>0.1841083333333333</v>
       </c>
       <c r="N7">
-        <v>0.01093</v>
+        <v>0.552325</v>
       </c>
       <c r="O7">
-        <v>0.002400362448141301</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="P7">
-        <v>0.002400362448141301</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="Q7">
-        <v>4.921742470725556</v>
+        <v>248.7101015684806</v>
       </c>
       <c r="R7">
-        <v>44.29568223653001</v>
+        <v>2238.390914116325</v>
       </c>
       <c r="S7">
-        <v>0.002116967854309001</v>
+        <v>0.3915520387098506</v>
       </c>
       <c r="T7">
-        <v>0.002116967854309001</v>
+        <v>0.3915520387098507</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>4052.669921</v>
       </c>
       <c r="I8">
-        <v>0.8819367491556352</v>
+        <v>0.947715794239517</v>
       </c>
       <c r="J8">
-        <v>0.8819367491556351</v>
+        <v>0.9477157942395171</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.2626486666666666</v>
+        <v>0.09045733333333333</v>
       </c>
       <c r="N8">
-        <v>0.7879459999999999</v>
+        <v>0.271372</v>
       </c>
       <c r="O8">
-        <v>0.1730426339947982</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="P8">
-        <v>0.1730426339947983</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="Q8">
-        <v>354.8094503969184</v>
+        <v>122.1979046446236</v>
       </c>
       <c r="R8">
-        <v>3193.285053572266</v>
+        <v>1099.781141801612</v>
       </c>
       <c r="S8">
-        <v>0.1526126580907008</v>
+        <v>0.1923799571787799</v>
       </c>
       <c r="T8">
-        <v>0.1526126580907008</v>
+        <v>0.1923799571787799</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>4052.669921</v>
       </c>
       <c r="I9">
-        <v>0.8819367491556352</v>
+        <v>0.947715794239517</v>
       </c>
       <c r="J9">
-        <v>0.8819367491556351</v>
+        <v>0.9477157942395171</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.5169776666666667</v>
+        <v>0.1620173333333333</v>
       </c>
       <c r="N9">
-        <v>1.550933</v>
+        <v>0.486052</v>
       </c>
       <c r="O9">
-        <v>0.3406039645730221</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="P9">
-        <v>0.3406039645730221</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="Q9">
-        <v>698.3799465095882</v>
+        <v>218.8675911602102</v>
       </c>
       <c r="R9">
-        <v>6285.419518586293</v>
+        <v>1969.808320441892</v>
       </c>
       <c r="S9">
-        <v>0.3003911532650523</v>
+        <v>0.3445700475607664</v>
       </c>
       <c r="T9">
-        <v>0.3003911532650522</v>
+        <v>0.3445700475607665</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,25 +1030,25 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1350.889973666667</v>
+        <v>0.06264699999999999</v>
       </c>
       <c r="H10">
-        <v>4052.669921</v>
+        <v>0.187941</v>
       </c>
       <c r="I10">
-        <v>0.8819367491556352</v>
+        <v>4.394995337819644E-05</v>
       </c>
       <c r="J10">
-        <v>0.8819367491556351</v>
+        <v>4.394995337819645E-05</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,33 +1057,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.03064833333333333</v>
+        <v>0.009034333333333333</v>
       </c>
       <c r="N10">
-        <v>0.091945</v>
+        <v>0.027103</v>
       </c>
       <c r="O10">
-        <v>0.02019225300039816</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="P10">
-        <v>0.02019225300039816</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="Q10">
-        <v>41.40252620959389</v>
+        <v>0.0005659738803333332</v>
       </c>
       <c r="R10">
-        <v>372.622735886345</v>
+        <v>0.005093764923</v>
       </c>
       <c r="S10">
-        <v>0.01780828996929927</v>
+        <v>8.91030260948301E-07</v>
       </c>
       <c r="T10">
-        <v>0.01780828996929927</v>
+        <v>8.910302609483011E-07</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,25 +1092,25 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1350.889973666667</v>
+        <v>0.06264699999999999</v>
       </c>
       <c r="H11">
-        <v>4052.669921</v>
+        <v>0.187941</v>
       </c>
       <c r="I11">
-        <v>0.8819367491556352</v>
+        <v>4.394995337819644E-05</v>
       </c>
       <c r="J11">
-        <v>0.8819367491556351</v>
+        <v>4.394995337819645E-05</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.7039083333333332</v>
+        <v>0.1841083333333333</v>
       </c>
       <c r="N11">
-        <v>2.111725</v>
+        <v>0.552325</v>
       </c>
       <c r="O11">
-        <v>0.4637607859836402</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="P11">
-        <v>0.4637607859836402</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="Q11">
-        <v>950.9027098804138</v>
+        <v>0.01153383475833333</v>
       </c>
       <c r="R11">
-        <v>8558.124388923725</v>
+        <v>0.103804512825</v>
       </c>
       <c r="S11">
-        <v>0.4090076799762739</v>
+        <v>1.815807434152198E-05</v>
       </c>
       <c r="T11">
-        <v>0.4090076799762739</v>
+        <v>1.815807434152199E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,25 +1154,25 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.775464</v>
+        <v>0.06264699999999999</v>
       </c>
       <c r="H12">
-        <v>2.326392</v>
+        <v>0.187941</v>
       </c>
       <c r="I12">
-        <v>0.0005062663966562098</v>
+        <v>4.394995337819644E-05</v>
       </c>
       <c r="J12">
-        <v>0.0005062663966562098</v>
+        <v>4.394995337819645E-05</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,28 +1181,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.003643333333333333</v>
+        <v>0.09045733333333333</v>
       </c>
       <c r="N12">
-        <v>0.01093</v>
+        <v>0.271372</v>
       </c>
       <c r="O12">
-        <v>0.002400362448141301</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="P12">
-        <v>0.002400362448141301</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="Q12">
-        <v>0.00282527384</v>
+        <v>0.005666880561333333</v>
       </c>
       <c r="R12">
-        <v>0.02542746456000001</v>
+        <v>0.051001925052</v>
       </c>
       <c r="S12">
-        <v>1.215222847289375E-06</v>
+        <v>8.921546100950535E-06</v>
       </c>
       <c r="T12">
-        <v>1.215222847289375E-06</v>
+        <v>8.921546100950537E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,25 +1216,25 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.775464</v>
+        <v>0.06264699999999999</v>
       </c>
       <c r="H13">
-        <v>2.326392</v>
+        <v>0.187941</v>
       </c>
       <c r="I13">
-        <v>0.0005062663966562098</v>
+        <v>4.394995337819644E-05</v>
       </c>
       <c r="J13">
-        <v>0.0005062663966562098</v>
+        <v>4.394995337819645E-05</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,43 +1243,43 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.2626486666666666</v>
+        <v>0.1620173333333333</v>
       </c>
       <c r="N13">
-        <v>0.7879459999999999</v>
+        <v>0.486052</v>
       </c>
       <c r="O13">
-        <v>0.1730426339947982</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="P13">
-        <v>0.1730426339947983</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="Q13">
-        <v>0.203674585648</v>
+        <v>0.01014989988133333</v>
       </c>
       <c r="R13">
-        <v>1.833071270832</v>
+        <v>0.09134909893199999</v>
       </c>
       <c r="S13">
-        <v>8.760567078044586E-05</v>
+        <v>1.597930267477562E-05</v>
       </c>
       <c r="T13">
-        <v>8.760567078044589E-05</v>
+        <v>1.597930267477562E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
       <c r="E14">
         <v>3</v>
       </c>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.775464</v>
+        <v>46.06026966666667</v>
       </c>
       <c r="H14">
-        <v>2.326392</v>
+        <v>138.180809</v>
       </c>
       <c r="I14">
-        <v>0.0005062663966562098</v>
+        <v>0.03231354581124644</v>
       </c>
       <c r="J14">
-        <v>0.0005062663966562098</v>
+        <v>0.03231354581124645</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.5169776666666667</v>
+        <v>0.009034333333333333</v>
       </c>
       <c r="N14">
-        <v>1.550933</v>
+        <v>0.027103</v>
       </c>
       <c r="O14">
-        <v>0.3406039645730221</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="P14">
-        <v>0.3406039645730221</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="Q14">
-        <v>0.400897569304</v>
+        <v>0.4161238295918889</v>
       </c>
       <c r="R14">
-        <v>3.608078123736</v>
+        <v>3.745114466327</v>
       </c>
       <c r="S14">
-        <v>0.0001724363418312032</v>
+        <v>0.000655116671196372</v>
       </c>
       <c r="T14">
-        <v>0.0001724363418312032</v>
+        <v>0.0006551166711963722</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,51 +1349,51 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.775464</v>
+        <v>46.06026966666667</v>
       </c>
       <c r="H15">
-        <v>2.326392</v>
+        <v>138.180809</v>
       </c>
       <c r="I15">
-        <v>0.0005062663966562098</v>
+        <v>0.03231354581124644</v>
       </c>
       <c r="J15">
-        <v>0.0005062663966562098</v>
+        <v>0.03231354581124645</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.03064833333333333</v>
+        <v>0.1841083333333333</v>
       </c>
       <c r="N15">
-        <v>0.091945</v>
+        <v>0.552325</v>
       </c>
       <c r="O15">
-        <v>0.02019225300039816</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="P15">
-        <v>0.02019225300039816</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="Q15">
-        <v>0.02376667916</v>
+        <v>8.480079481213888</v>
       </c>
       <c r="R15">
-        <v>0.21390011244</v>
+        <v>76.320715330925</v>
       </c>
       <c r="S15">
-        <v>1.022265916688212E-05</v>
+        <v>0.01335045254837236</v>
       </c>
       <c r="T15">
-        <v>1.022265916688212E-05</v>
+        <v>0.01335045254837237</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.775464</v>
+        <v>46.06026966666667</v>
       </c>
       <c r="H16">
-        <v>2.326392</v>
+        <v>138.180809</v>
       </c>
       <c r="I16">
-        <v>0.0005062663966562098</v>
+        <v>0.03231354581124644</v>
       </c>
       <c r="J16">
-        <v>0.0005062663966562098</v>
+        <v>0.03231354581124645</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.7039083333333332</v>
+        <v>0.09045733333333333</v>
       </c>
       <c r="N16">
-        <v>2.111725</v>
+        <v>0.271372</v>
       </c>
       <c r="O16">
-        <v>0.4637607859836402</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="P16">
-        <v>0.4637607859836402</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="Q16">
-        <v>0.5458555718</v>
+        <v>4.166489166660889</v>
       </c>
       <c r="R16">
-        <v>4.9127001462</v>
+        <v>37.498402499948</v>
       </c>
       <c r="S16">
-        <v>0.0002347865020303892</v>
+        <v>0.006559433320883367</v>
       </c>
       <c r="T16">
-        <v>0.0002347865020303892</v>
+        <v>0.006559433320883368</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>169.7210186666667</v>
+        <v>46.06026966666667</v>
       </c>
       <c r="H17">
-        <v>509.163056</v>
+        <v>138.180809</v>
       </c>
       <c r="I17">
-        <v>0.1108034010053267</v>
+        <v>0.03231354581124644</v>
       </c>
       <c r="J17">
-        <v>0.1108034010053267</v>
+        <v>0.03231354581124645</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.003643333333333333</v>
+        <v>0.1620173333333333</v>
       </c>
       <c r="N17">
-        <v>0.01093</v>
+        <v>0.486052</v>
       </c>
       <c r="O17">
-        <v>0.002400362448141301</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="P17">
-        <v>0.002400362448141301</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="Q17">
-        <v>0.6183502446755555</v>
+        <v>7.462562064007556</v>
       </c>
       <c r="R17">
-        <v>5.56515220208</v>
+        <v>67.163058576068</v>
       </c>
       <c r="S17">
-        <v>0.0002659683228995282</v>
+        <v>0.01174854327079434</v>
       </c>
       <c r="T17">
-        <v>0.0002659683228995282</v>
+        <v>0.01174854327079435</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>169.7210186666667</v>
+        <v>0.3690546666666667</v>
       </c>
       <c r="H18">
-        <v>509.163056</v>
+        <v>1.107164</v>
       </c>
       <c r="I18">
-        <v>0.1108034010053267</v>
+        <v>0.0002589100099606658</v>
       </c>
       <c r="J18">
-        <v>0.1108034010053267</v>
+        <v>0.0002589100099606658</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.2626486666666666</v>
+        <v>0.009034333333333333</v>
       </c>
       <c r="N18">
-        <v>0.7879459999999999</v>
+        <v>0.027103</v>
       </c>
       <c r="O18">
-        <v>0.1730426339947982</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="P18">
-        <v>0.1730426339947983</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="Q18">
-        <v>44.57699925810844</v>
+        <v>0.003334162876888889</v>
       </c>
       <c r="R18">
-        <v>401.192993322976</v>
+        <v>0.030007465892</v>
       </c>
       <c r="S18">
-        <v>0.01917371236554361</v>
+        <v>5.249076187913042E-06</v>
       </c>
       <c r="T18">
-        <v>0.01917371236554361</v>
+        <v>5.249076187913042E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>169.7210186666667</v>
+        <v>0.3690546666666667</v>
       </c>
       <c r="H19">
-        <v>509.163056</v>
+        <v>1.107164</v>
       </c>
       <c r="I19">
-        <v>0.1108034010053267</v>
+        <v>0.0002589100099606658</v>
       </c>
       <c r="J19">
-        <v>0.1108034010053267</v>
+        <v>0.0002589100099606658</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,33 +1615,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.5169776666666667</v>
+        <v>0.1841083333333333</v>
       </c>
       <c r="N19">
-        <v>1.550933</v>
+        <v>0.552325</v>
       </c>
       <c r="O19">
-        <v>0.3406039645730221</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="P19">
-        <v>0.3406039645730221</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="Q19">
-        <v>87.7419762145831</v>
+        <v>0.0679460395888889</v>
       </c>
       <c r="R19">
-        <v>789.677785931248</v>
+        <v>0.6115143563</v>
       </c>
       <c r="S19">
-        <v>0.03774007767058866</v>
+        <v>0.0001069695607677774</v>
       </c>
       <c r="T19">
-        <v>0.03774007767058865</v>
+        <v>0.0001069695607677774</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>169.7210186666667</v>
+        <v>0.3690546666666667</v>
       </c>
       <c r="H20">
-        <v>509.163056</v>
+        <v>1.107164</v>
       </c>
       <c r="I20">
-        <v>0.1108034010053267</v>
+        <v>0.0002589100099606658</v>
       </c>
       <c r="J20">
-        <v>0.1108034010053267</v>
+        <v>0.0002589100099606658</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1677,33 +1677,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.03064833333333333</v>
+        <v>0.09045733333333333</v>
       </c>
       <c r="N20">
-        <v>0.091945</v>
+        <v>0.271372</v>
       </c>
       <c r="O20">
-        <v>0.02019225300039816</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="P20">
-        <v>0.02019225300039816</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="Q20">
-        <v>5.201666353768888</v>
+        <v>0.03338370100088889</v>
       </c>
       <c r="R20">
-        <v>46.81499718392</v>
+        <v>0.300453309008</v>
       </c>
       <c r="S20">
-        <v>0.002237370306404128</v>
+        <v>5.255699750087953E-05</v>
       </c>
       <c r="T20">
-        <v>0.002237370306404128</v>
+        <v>5.255699750087953E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>169.7210186666667</v>
+        <v>0.3690546666666667</v>
       </c>
       <c r="H21">
-        <v>509.163056</v>
+        <v>1.107164</v>
       </c>
       <c r="I21">
-        <v>0.1108034010053267</v>
+        <v>0.0002589100099606658</v>
       </c>
       <c r="J21">
-        <v>0.1108034010053267</v>
+        <v>0.0002589100099606658</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.7039083333333332</v>
+        <v>0.1620173333333333</v>
       </c>
       <c r="N21">
-        <v>2.111725</v>
+        <v>0.486052</v>
       </c>
       <c r="O21">
-        <v>0.4637607859836402</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="P21">
-        <v>0.4637607859836402</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="Q21">
-        <v>119.4680393812889</v>
+        <v>0.05979325294755555</v>
       </c>
       <c r="R21">
-        <v>1075.2123544316</v>
+        <v>0.538139276528</v>
       </c>
       <c r="S21">
-        <v>0.05138627233989077</v>
+        <v>9.413437550409584E-05</v>
       </c>
       <c r="T21">
-        <v>0.05138627233989077</v>
+        <v>9.413437550409585E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,25 +1774,25 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.3475303333333333</v>
+        <v>0.2192486666666666</v>
       </c>
       <c r="H22">
-        <v>1.042591</v>
+        <v>0.6577459999999999</v>
       </c>
       <c r="I22">
-        <v>0.0002268872953295035</v>
+        <v>0.000153813728961191</v>
       </c>
       <c r="J22">
-        <v>0.0002268872953295035</v>
+        <v>0.000153813728961191</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1801,33 +1801,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.003643333333333333</v>
+        <v>0.009034333333333333</v>
       </c>
       <c r="N22">
-        <v>0.01093</v>
+        <v>0.027103</v>
       </c>
       <c r="O22">
-        <v>0.002400362448141301</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="P22">
-        <v>0.002400362448141301</v>
+        <v>0.02027374758013602</v>
       </c>
       <c r="Q22">
-        <v>0.001266168847777778</v>
+        <v>0.001980765537555555</v>
       </c>
       <c r="R22">
-        <v>0.01139551963</v>
+        <v>0.017826889838</v>
       </c>
       <c r="S22">
-        <v>5.446117436692854E-07</v>
+        <v>3.118380715318643E-06</v>
       </c>
       <c r="T22">
-        <v>5.446117436692853E-07</v>
+        <v>3.118380715318644E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.3475303333333333</v>
+        <v>0.2192486666666666</v>
       </c>
       <c r="H23">
-        <v>1.042591</v>
+        <v>0.6577459999999999</v>
       </c>
       <c r="I23">
-        <v>0.0002268872953295035</v>
+        <v>0.000153813728961191</v>
       </c>
       <c r="J23">
-        <v>0.0002268872953295035</v>
+        <v>0.000153813728961191</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.2626486666666666</v>
+        <v>0.1841083333333333</v>
       </c>
       <c r="N23">
-        <v>0.7879459999999999</v>
+        <v>0.552325</v>
       </c>
       <c r="O23">
-        <v>0.1730426339947982</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="P23">
-        <v>0.1730426339947983</v>
+        <v>0.413153438076915</v>
       </c>
       <c r="Q23">
-        <v>0.0912783786762222</v>
+        <v>0.04036550660555555</v>
       </c>
       <c r="R23">
-        <v>0.8215054080859998</v>
+        <v>0.36328955945</v>
       </c>
       <c r="S23">
-        <v>3.926117520377297E-05</v>
+        <v>6.35486709437468E-05</v>
       </c>
       <c r="T23">
-        <v>3.926117520377298E-05</v>
+        <v>6.354867094374682E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.3475303333333333</v>
+        <v>0.2192486666666666</v>
       </c>
       <c r="H24">
-        <v>1.042591</v>
+        <v>0.6577459999999999</v>
       </c>
       <c r="I24">
-        <v>0.0002268872953295035</v>
+        <v>0.000153813728961191</v>
       </c>
       <c r="J24">
-        <v>0.0002268872953295035</v>
+        <v>0.000153813728961191</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.5169776666666667</v>
+        <v>0.09045733333333333</v>
       </c>
       <c r="N24">
-        <v>1.550933</v>
+        <v>0.271372</v>
       </c>
       <c r="O24">
-        <v>0.3406039645730221</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="P24">
-        <v>0.3406039645730221</v>
+        <v>0.2029933006795068</v>
       </c>
       <c r="Q24">
-        <v>0.1796654208225555</v>
+        <v>0.01983264972355555</v>
       </c>
       <c r="R24">
-        <v>1.616988787403</v>
+        <v>0.178493847512</v>
       </c>
       <c r="S24">
-        <v>7.727871230047902E-05</v>
+        <v>3.122315653165521E-05</v>
       </c>
       <c r="T24">
-        <v>7.727871230047902E-05</v>
+        <v>3.122315653165521E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,427 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.2192486666666666</v>
+      </c>
+      <c r="H25">
+        <v>0.6577459999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.000153813728961191</v>
+      </c>
+      <c r="J25">
+        <v>0.000153813728961191</v>
+      </c>
+      <c r="K25">
         <v>2</v>
       </c>
-      <c r="F25">
+      <c r="L25">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G25">
-        <v>0.3475303333333333</v>
-      </c>
-      <c r="H25">
-        <v>1.042591</v>
-      </c>
-      <c r="I25">
-        <v>0.0002268872953295035</v>
-      </c>
-      <c r="J25">
-        <v>0.0002268872953295035</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M25">
-        <v>0.03064833333333333</v>
+        <v>0.1620173333333333</v>
       </c>
       <c r="N25">
-        <v>0.091945</v>
+        <v>0.486052</v>
       </c>
       <c r="O25">
-        <v>0.02019225300039816</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="P25">
-        <v>0.02019225300039816</v>
+        <v>0.3635795136634422</v>
       </c>
       <c r="Q25">
-        <v>0.01065122549944444</v>
+        <v>0.03552208431022222</v>
       </c>
       <c r="R25">
-        <v>0.09586102949499999</v>
+        <v>0.3196987587919999</v>
       </c>
       <c r="S25">
-        <v>4.58136566986939E-06</v>
+        <v>5.592352077047033E-05</v>
       </c>
       <c r="T25">
-        <v>4.581365669869391E-06</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.3475303333333333</v>
-      </c>
-      <c r="H26">
-        <v>1.042591</v>
-      </c>
-      <c r="I26">
-        <v>0.0002268872953295035</v>
-      </c>
-      <c r="J26">
-        <v>0.0002268872953295035</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.7039083333333332</v>
-      </c>
-      <c r="N26">
-        <v>2.111725</v>
-      </c>
-      <c r="O26">
-        <v>0.4637607859836402</v>
-      </c>
-      <c r="P26">
-        <v>0.4637607859836402</v>
-      </c>
-      <c r="Q26">
-        <v>0.2446294977194444</v>
-      </c>
-      <c r="R26">
-        <v>2.201665479474999</v>
-      </c>
-      <c r="S26">
-        <v>0.0001052214304117128</v>
-      </c>
-      <c r="T26">
-        <v>0.0001052214304117128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>2.121057</v>
-      </c>
-      <c r="H27">
-        <v>6.363171</v>
-      </c>
-      <c r="I27">
-        <v>0.001384744984283513</v>
-      </c>
-      <c r="J27">
-        <v>0.001384744984283513</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M27">
-        <v>0.003643333333333333</v>
-      </c>
-      <c r="N27">
-        <v>0.01093</v>
-      </c>
-      <c r="O27">
-        <v>0.002400362448141301</v>
-      </c>
-      <c r="P27">
-        <v>0.002400362448141301</v>
-      </c>
-      <c r="Q27">
-        <v>0.00772771767</v>
-      </c>
-      <c r="R27">
-        <v>0.06954945903000001</v>
-      </c>
-      <c r="S27">
-        <v>3.323889860526161E-06</v>
-      </c>
-      <c r="T27">
-        <v>3.32388986052616E-06</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>2.121057</v>
-      </c>
-      <c r="H28">
-        <v>6.363171</v>
-      </c>
-      <c r="I28">
-        <v>0.001384744984283513</v>
-      </c>
-      <c r="J28">
-        <v>0.001384744984283513</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M28">
-        <v>0.2626486666666666</v>
-      </c>
-      <c r="N28">
-        <v>0.7879459999999999</v>
-      </c>
-      <c r="O28">
-        <v>0.1730426339947982</v>
-      </c>
-      <c r="P28">
-        <v>0.1730426339947983</v>
-      </c>
-      <c r="Q28">
-        <v>0.5570927929739999</v>
-      </c>
-      <c r="R28">
-        <v>5.013835136766</v>
-      </c>
-      <c r="S28">
-        <v>0.0002396199194915047</v>
-      </c>
-      <c r="T28">
-        <v>0.0002396199194915047</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>2.121057</v>
-      </c>
-      <c r="H29">
-        <v>6.363171</v>
-      </c>
-      <c r="I29">
-        <v>0.001384744984283513</v>
-      </c>
-      <c r="J29">
-        <v>0.001384744984283513</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>0.5169776666666667</v>
-      </c>
-      <c r="N29">
-        <v>1.550933</v>
-      </c>
-      <c r="O29">
-        <v>0.3406039645730221</v>
-      </c>
-      <c r="P29">
-        <v>0.3406039645730221</v>
-      </c>
-      <c r="Q29">
-        <v>1.096539098727</v>
-      </c>
-      <c r="R29">
-        <v>9.868851888543</v>
-      </c>
-      <c r="S29">
-        <v>0.0004716496315695719</v>
-      </c>
-      <c r="T29">
-        <v>0.0004716496315695718</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>2.121057</v>
-      </c>
-      <c r="H30">
-        <v>6.363171</v>
-      </c>
-      <c r="I30">
-        <v>0.001384744984283513</v>
-      </c>
-      <c r="J30">
-        <v>0.001384744984283513</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M30">
-        <v>0.03064833333333333</v>
-      </c>
-      <c r="N30">
-        <v>0.091945</v>
-      </c>
-      <c r="O30">
-        <v>0.02019225300039816</v>
-      </c>
-      <c r="P30">
-        <v>0.02019225300039816</v>
-      </c>
-      <c r="Q30">
-        <v>0.06500686195499999</v>
-      </c>
-      <c r="R30">
-        <v>0.585061757595</v>
-      </c>
-      <c r="S30">
-        <v>2.796112106368507E-05</v>
-      </c>
-      <c r="T30">
-        <v>2.796112106368507E-05</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>2.121057</v>
-      </c>
-      <c r="H31">
-        <v>6.363171</v>
-      </c>
-      <c r="I31">
-        <v>0.001384744984283513</v>
-      </c>
-      <c r="J31">
-        <v>0.001384744984283513</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.7039083333333332</v>
-      </c>
-      <c r="N31">
-        <v>2.111725</v>
-      </c>
-      <c r="O31">
-        <v>0.4637607859836402</v>
-      </c>
-      <c r="P31">
-        <v>0.4637607859836402</v>
-      </c>
-      <c r="Q31">
-        <v>1.493029697775</v>
-      </c>
-      <c r="R31">
-        <v>13.437267279975</v>
-      </c>
-      <c r="S31">
-        <v>0.0006421904222982256</v>
-      </c>
-      <c r="T31">
-        <v>0.0006421904222982256</v>
+        <v>5.592352077047035E-05</v>
       </c>
     </row>
   </sheetData>
